--- a/biology/Biologie cellulaire et moléculaire/Jean-Pierre_Lecocq/Jean-Pierre_Lecocq.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jean-Pierre_Lecocq/Jean-Pierre_Lecocq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Lecocq, né à Gosselies, en Belgique le 17 juillet 1947 et mort au Mont Sainte-Odile, en Alsace le 20 janvier 1992, est un scientifique (chimiste, biologiste moléculaire, virologiste) et entrepreneur belge. Depuis 1980, il avait été successivement directeur scientifique, puis vice-président (1984) et président (1990) de la société Transgène à Strasbourg. Jean-Pierre Lecocq a été victime de l'accident du vol 148 Air Inter le 20 janvier 1992 au Mont Sainte-Odile.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Entre 1970 et 1991 Jean-Pierre Lecocq a publié 130 articles. Quinze articles en plus sont apparus entre 1992 et 1995 :
 J.P. Lecocq (thèse) Étude génétique et biochimique de la régulation de la transcription Dépt. de Biologie Moléculaire, université libre de Bruxelles (1975)
@@ -558,7 +572,9 @@
           <t>Éditeur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lecocq était éditeur (ou coéditeur) des journaux suivants :
 Cell (USA) depuis 1983 ;
@@ -593,7 +609,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lecocq était membre des associations suivantes :
 Société belge de biochimie depuis 1970
@@ -632,7 +650,9 @@
           <t>Fondation Jean-Pierre-Lecocq</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin d'honorer les achèvements de Jean-Pierre Lecocq, en 1992 la Fondation Jean-Pierre-Lecocq a été créée. Depuis 1994 (et jusqu'à 2020) tous les deux ans un prix Jean-Pierre-Lecocq est accordé par l'académie des sciences pour « des innovations scientifiques en biologie moléculaire. »
 </t>
@@ -663,7 +683,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Molecular Microbiology (1992) 6 (11), p. 1577-1578
 P. Chambon, M. Courtney, P. Kourilsky, R. Lathe (1992) In Memoriam.  Jean-Pierre Lecocq, 1947-1992 Gene 118, p. 1-2
